--- a/data/trans_orig/P6501-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6501-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8F2E350-87AA-43C7-8B55-09BD7B70A612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7117E499-DE99-4878-BDB7-5ECBD0EB0771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{21129C9F-59AB-4CFD-B5E1-03C93C665D91}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{90334793-C9F5-4D5C-A78E-B0D8DDC14DA3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="158">
   <si>
     <t>Población según la exposición a vibraciones provenientes de herramientas o máquinas durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,02%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>44,16%</t>
   </si>
   <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
   </si>
   <si>
     <t>75,88%</t>
   </si>
   <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
   </si>
   <si>
     <t>53,25%</t>
   </si>
   <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>20,95%</t>
   </si>
   <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
   </si>
   <si>
     <t>18,03%</t>
   </si>
   <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
   </si>
   <si>
     <t>20,11%</t>
   </si>
   <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,28 @@
     <t>23,89%</t>
   </si>
   <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
   </si>
   <si>
     <t>3,61%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
   </si>
   <si>
     <t>18,08%</t>
   </si>
   <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,10 +164,10 @@
     <t>11,0%</t>
   </si>
   <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
   </si>
   <si>
     <t>2,49%</t>
@@ -176,16 +176,16 @@
     <t>0,62%</t>
   </si>
   <si>
-    <t>6,11%</t>
+    <t>6,17%</t>
   </si>
   <si>
     <t>8,56%</t>
   </si>
   <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,16 +197,16 @@
     <t>51,28%</t>
   </si>
   <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
   </si>
   <si>
     <t>85,15%</t>
   </si>
   <si>
-    <t>81,96%</t>
+    <t>81,94%</t>
   </si>
   <si>
     <t>87,92%</t>
@@ -215,91 +215,91 @@
     <t>62,83%</t>
   </si>
   <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
   </si>
   <si>
     <t>18,65%</t>
   </si>
   <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
   </si>
   <si>
     <t>10,1%</t>
   </si>
   <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
   </si>
   <si>
     <t>15,73%</t>
   </si>
   <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
   </si>
   <si>
     <t>21,75%</t>
   </si>
   <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
   </si>
   <si>
     <t>2,52%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
   </si>
   <si>
     <t>15,19%</t>
   </si>
   <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
   </si>
   <si>
     <t>8,32%</t>
   </si>
   <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
   </si>
   <si>
     <t>2,24%</t>
   </si>
   <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
   </si>
   <si>
     <t>6,24%</t>
   </si>
   <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -308,55 +308,55 @@
     <t>78,99%</t>
   </si>
   <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
   </si>
   <si>
     <t>92,73%</t>
   </si>
   <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
   </si>
   <si>
     <t>84,72%</t>
   </si>
   <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
   </si>
   <si>
     <t>15,01%</t>
   </si>
   <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
   </si>
   <si>
     <t>6,28%</t>
   </si>
   <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
   </si>
   <si>
     <t>11,37%</t>
   </si>
   <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
   </si>
   <si>
     <t>3,51%</t>
@@ -365,16 +365,16 @@
     <t>1,99%</t>
   </si>
   <si>
-    <t>5,8%</t>
+    <t>5,54%</t>
   </si>
   <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
   </si>
   <si>
     <t>2,46%</t>
@@ -383,13 +383,13 @@
     <t>1,46%</t>
   </si>
   <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -404,106 +404,109 @@
     <t>1,45%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
   </si>
   <si>
     <t>55,77%</t>
   </si>
   <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
   </si>
   <si>
     <t>85,93%</t>
   </si>
   <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
   </si>
   <si>
     <t>66,3%</t>
   </si>
   <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
   </si>
   <si>
     <t>18,33%</t>
   </si>
   <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
   </si>
   <si>
     <t>10,19%</t>
   </si>
   <si>
+    <t>8,29%</t>
+  </si>
+  <si>
     <t>12,06%</t>
   </si>
   <si>
     <t>15,49%</t>
   </si>
   <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
+    <t>16,82%</t>
   </si>
   <si>
     <t>18,29%</t>
   </si>
   <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
   </si>
   <si>
     <t>12,69%</t>
   </si>
   <si>
-    <t>11,55%</t>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
   </si>
   <si>
     <t>7,61%</t>
   </si>
   <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
   </si>
   <si>
     <t>5,52%</t>
   </si>
   <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -918,7 +921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{720ADBC5-113A-4185-9EE1-99D85D896E44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203CFB97-2987-4353-8E17-4515DC2CDDBB}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1882,10 +1885,10 @@
         <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>437</v>
@@ -1894,10 +1897,10 @@
         <v>453159</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>68</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>140</v>
@@ -1933,7 +1936,7 @@
         <v>82</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>144</v>
@@ -1951,7 +1954,7 @@
         <v>146</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1966,13 +1969,13 @@
         <v>144858</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -1981,13 +1984,13 @@
         <v>16753</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>158</v>
@@ -1996,13 +1999,13 @@
         <v>161611</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2058,7 +2061,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6501-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6501-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7117E499-DE99-4878-BDB7-5ECBD0EB0771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADDA8ADA-8AB3-4B03-9D60-35AD04FE16FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{90334793-C9F5-4D5C-A78E-B0D8DDC14DA3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{12ABE41D-9F2A-4449-BAF5-52FEE721B86F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>44,16%</t>
   </si>
   <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
   </si>
   <si>
     <t>75,88%</t>
   </si>
   <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
   </si>
   <si>
     <t>53,25%</t>
   </si>
   <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>20,95%</t>
   </si>
   <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
   </si>
   <si>
     <t>18,03%</t>
   </si>
   <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
   </si>
   <si>
     <t>20,11%</t>
   </si>
   <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,28 @@
     <t>23,89%</t>
   </si>
   <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
   </si>
   <si>
     <t>3,61%</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
   </si>
   <si>
     <t>18,08%</t>
   </si>
   <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,349 +164,349 @@
     <t>11,0%</t>
   </si>
   <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
   </si>
   <si>
     <t>2,49%</t>
   </si>
   <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
   </si>
   <si>
     <t>8,56%</t>
   </si>
   <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
     <t>6,43%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -921,7 +921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203CFB97-2987-4353-8E17-4515DC2CDDBB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{661443B0-1C41-477E-8FE3-D1AF87F32C09}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1485,13 +1485,13 @@
         <v>106360</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1547,7 +1547,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1559,13 +1559,13 @@
         <v>320167</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>257</v>
@@ -1574,13 +1574,13 @@
         <v>269076</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>565</v>
@@ -1589,13 +1589,13 @@
         <v>589243</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1610,13 +1610,13 @@
         <v>60823</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>18</v>
@@ -1625,13 +1625,13 @@
         <v>18230</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>77</v>
@@ -1640,13 +1640,13 @@
         <v>79054</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1661,13 +1661,13 @@
         <v>14219</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -1676,13 +1676,13 @@
         <v>2870</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -1691,13 +1691,13 @@
         <v>17090</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1715,10 +1715,10 @@
         <v>44</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1727,13 +1727,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -1742,13 +1742,13 @@
         <v>10100</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1816,13 +1816,13 @@
         <v>1062119</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>838</v>
@@ -1831,13 +1831,13 @@
         <v>878236</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>1848</v>
@@ -1846,13 +1846,13 @@
         <v>1940355</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1867,13 +1867,13 @@
         <v>349046</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>100</v>
@@ -1882,13 +1882,13 @@
         <v>104112</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>437</v>
@@ -1897,13 +1897,13 @@
         <v>453159</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1918,13 +1918,13 @@
         <v>348366</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>23</v>
@@ -1936,7 +1936,7 @@
         <v>82</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>144</v>

--- a/data/trans_orig/P6501-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6501-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADDA8ADA-8AB3-4B03-9D60-35AD04FE16FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5FFB618-6C5B-424F-9BD7-A76A2FD6FC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{12ABE41D-9F2A-4449-BAF5-52FEE721B86F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{97D8321C-1DA8-4067-AA0E-ADFE9BFBFA83}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="157">
   <si>
     <t>Población según la exposición a vibraciones provenientes de herramientas o máquinas durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,02%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>44,16%</t>
   </si>
   <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
   </si>
   <si>
     <t>75,88%</t>
   </si>
   <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
   </si>
   <si>
     <t>53,25%</t>
   </si>
   <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>20,95%</t>
   </si>
   <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
   </si>
   <si>
     <t>18,03%</t>
   </si>
   <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
   </si>
   <si>
     <t>20,11%</t>
   </si>
   <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,7 +134,7 @@
     <t>23,89%</t>
   </si>
   <si>
-    <t>19,44%</t>
+    <t>19,27%</t>
   </si>
   <si>
     <t>28,48%</t>
@@ -143,19 +143,19 @@
     <t>3,61%</t>
   </si>
   <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
   </si>
   <si>
     <t>18,08%</t>
   </si>
   <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,277 +164,283 @@
     <t>11,0%</t>
   </si>
   <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
   </si>
   <si>
     <t>2,49%</t>
   </si>
   <si>
-    <t>0,63%</t>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
   </si>
   <si>
     <t>6,24%</t>
   </si>
   <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
   </si>
   <si>
     <t>1,46%</t>
   </si>
   <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
   </si>
   <si>
     <t>1,45%</t>
   </si>
   <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>2,83%</t>
+    <t>2,78%</t>
   </si>
   <si>
     <t>55,77%</t>
   </si>
   <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
   </si>
   <si>
     <t>85,93%</t>
   </si>
   <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
   </si>
   <si>
     <t>66,3%</t>
   </si>
   <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
   </si>
   <si>
     <t>18,33%</t>
   </si>
   <si>
-    <t>16,68%</t>
+    <t>16,49%</t>
   </si>
   <si>
     <t>20,2%</t>
@@ -443,70 +449,61 @@
     <t>10,19%</t>
   </si>
   <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
+    <t>12,06%</t>
   </si>
   <si>
     <t>15,49%</t>
   </si>
   <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
   </si>
   <si>
     <t>18,29%</t>
   </si>
   <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
   </si>
   <si>
     <t>12,69%</t>
   </si>
   <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
+    <t>11,55%</t>
   </si>
   <si>
     <t>7,61%</t>
   </si>
   <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
   </si>
   <si>
     <t>5,52%</t>
   </si>
   <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -921,7 +918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{661443B0-1C41-477E-8FE3-D1AF87F32C09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96CA7EA4-6FB7-49F6-A382-3CD025F8079B}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1485,13 +1482,13 @@
         <v>106360</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1547,7 +1544,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1559,13 +1556,13 @@
         <v>320167</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>257</v>
@@ -1574,13 +1571,13 @@
         <v>269076</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>565</v>
@@ -1589,13 +1586,13 @@
         <v>589243</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1610,13 +1607,13 @@
         <v>60823</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>18</v>
@@ -1625,13 +1622,13 @@
         <v>18230</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>77</v>
@@ -1640,13 +1637,13 @@
         <v>79054</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1661,13 +1658,13 @@
         <v>14219</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -1676,13 +1673,13 @@
         <v>2870</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -1691,13 +1688,13 @@
         <v>17090</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1715,10 +1712,10 @@
         <v>44</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1727,13 +1724,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -1742,13 +1739,13 @@
         <v>10100</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1816,13 +1813,13 @@
         <v>1062119</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>838</v>
@@ -1831,13 +1828,13 @@
         <v>878236</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>1848</v>
@@ -1846,13 +1843,13 @@
         <v>1940355</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1867,13 +1864,13 @@
         <v>349046</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>100</v>
@@ -1882,13 +1879,13 @@
         <v>104112</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>437</v>
@@ -1897,13 +1894,13 @@
         <v>453159</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1918,13 +1915,13 @@
         <v>348366</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>23</v>
@@ -1936,7 +1933,7 @@
         <v>82</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>144</v>
@@ -1954,7 +1951,7 @@
         <v>146</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1969,13 +1966,13 @@
         <v>144858</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -1984,13 +1981,13 @@
         <v>16753</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>158</v>
@@ -1999,13 +1996,13 @@
         <v>161611</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2061,7 +2058,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6501-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6501-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5FFB618-6C5B-424F-9BD7-A76A2FD6FC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEA6A703-9335-4CF6-8599-7F8B0D3A62F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{97D8321C-1DA8-4067-AA0E-ADFE9BFBFA83}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1D78379D-5AE8-4941-939B-7F457D453B80}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -918,7 +918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96CA7EA4-6FB7-49F6-A382-3CD025F8079B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBBC9B2B-6FC9-472E-9CE7-D624C41966DE}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1772,7 +1772,7 @@
         <v>278</v>
       </c>
       <c r="I18" s="7">
-        <v>290176</v>
+        <v>290177</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
